--- a/Switch-Ethernet/Rev A4/SwitchEthernet - Rev A4 - MDP/SwitchEthernet - Rev A4 - BOM.xlsx
+++ b/Switch-Ethernet/Rev A4/SwitchEthernet - Rev A4 - MDP/SwitchEthernet - Rev A4 - BOM.xlsx
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Switch-Ethernet/Rev A4/SwitchEthernet - Rev A4 - MDP/SwitchEthernet - Rev A4 - BOM.xlsx
+++ b/Switch-Ethernet/Rev A4/SwitchEthernet - Rev A4 - MDP/SwitchEthernet - Rev A4 - BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
@@ -396,18 +396,12 @@
     <t>MICROCHIP</t>
   </si>
   <si>
-    <t>TC1264-1.8VAB</t>
-  </si>
-  <si>
     <t>TC1264-3.3</t>
   </si>
   <si>
     <t>U1</t>
   </si>
   <si>
-    <t>TC1264-3.3VAB</t>
-  </si>
-  <si>
     <t>Neutrix</t>
   </si>
   <si>
@@ -493,12 +487,18 @@
   </si>
   <si>
     <t>GRM188R61A106KE69D</t>
+  </si>
+  <si>
+    <t>TC1264-1.8VDB</t>
+  </si>
+  <si>
+    <t>TC1264-3.3VDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,21 +709,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:I29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Qty" dataDxfId="8"/>
-    <tableColumn id="2" name="Designator" dataDxfId="7"/>
-    <tableColumn id="8" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" name="Description" dataDxfId="5"/>
-    <tableColumn id="9" name="Package" dataDxfId="4"/>
-    <tableColumn id="4" name=" Manufacteur" dataDxfId="3"/>
-    <tableColumn id="5" name="Reference Manufacteur" dataDxfId="2"/>
-    <tableColumn id="6" name="Mounting Tecghnologie" dataDxfId="1"/>
-    <tableColumn id="7" name="Mount" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Designator" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Value" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Package" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" Manufacteur" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Reference Manufacteur" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mounting Tecghnologie" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1094,14 +1094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,10 +1187,10 @@
         <v>30</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1220,10 +1220,10 @@
         <v>73</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1253,10 +1253,10 @@
         <v>48</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1283,13 +1283,13 @@
         <v>20</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1319,10 +1319,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1352,10 +1352,10 @@
         <v>59</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1373,7 +1373,7 @@
         <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>114</v>
@@ -1385,10 +1385,10 @@
         <v>113</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1406,22 +1406,22 @@
         <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1439,22 +1439,22 @@
         <v>43</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1478,16 +1478,16 @@
         <v>2007041</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1505,22 +1505,22 @@
         <v>107</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1534,22 +1534,22 @@
         <v>95</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>95</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1563,22 +1563,22 @@
         <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>92</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1598,16 +1598,16 @@
         <v>110</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>109</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1627,16 +1627,16 @@
         <v>39</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1656,16 +1656,16 @@
         <v>88</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,16 +1685,16 @@
         <v>88</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>91</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>77</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1749,10 +1749,10 @@
         <v>79</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,10 +1778,10 @@
         <v>53</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1807,10 +1807,10 @@
         <v>75</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1836,10 +1836,10 @@
         <v>65</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,10 +1865,10 @@
         <v>56</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1894,10 +1894,10 @@
         <v>33</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,10 +1921,10 @@
         <v>68</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1950,10 +1950,10 @@
         <v>33</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,10 +1979,10 @@
         <v>21</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1996,22 +1996,22 @@
         <v>101</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>101</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2019,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>118</v>
@@ -2034,13 +2034,13 @@
         <v>121</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2063,13 +2063,13 @@
         <v>121</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2083,7 +2083,7 @@
         <v>104</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>105</v>
@@ -2095,10 +2095,10 @@
         <v>104</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2124,10 +2124,10 @@
         <v>83</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2138,25 +2138,25 @@
         <v>81</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
